--- a/server/apps/cmdb/model_migrate/model_config.xlsx
+++ b/server/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15260" tabRatio="896" firstSheet="38" activeTab="42"/>
+    <workbookView windowHeight="15520" tabRatio="896" firstSheet="33" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="429">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -5153,8 +5153,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -13810,10 +13810,10 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -13879,10 +13879,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>123</v>
@@ -13903,13 +13903,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -13927,13 +13927,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>363</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -13946,18 +13946,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -13975,13 +13975,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -13999,14 +13999,15 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>124</v>
       </c>
@@ -14022,15 +14023,14 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>369</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>124</v>
       </c>
@@ -14046,19 +14046,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" t="s">
-        <v>187</v>
+        <v>123</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>0</v>
@@ -14072,15 +14070,17 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
       <c r="E11" t="s">
         <v>187</v>
       </c>
@@ -14096,14 +14096,15 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>187</v>
       </c>
@@ -14119,10 +14120,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>123</v>
@@ -14142,10 +14143,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>123</v>
@@ -14165,13 +14166,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>187</v>
@@ -14188,10 +14189,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>356</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>181</v>
@@ -14211,10 +14212,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>181</v>
@@ -14234,16 +14235,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
         <v>187</v>
@@ -14259,14 +14257,17 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B19" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
+      <c r="A19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
       </c>
       <c r="E19" t="s">
         <v>187</v>
@@ -14282,17 +14283,17 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>133</v>
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>0</v>
@@ -14306,10 +14307,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>133</v>
@@ -14329,16 +14330,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="b">
         <v>0</v>
@@ -14352,13 +14353,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>155</v>
@@ -14375,13 +14376,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>155</v>
@@ -14397,13 +14398,27 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1"/>
@@ -14431,6 +14446,15 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
